--- a/Profile_DocumentReference.xlsx
+++ b/Profile_DocumentReference.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>FIELDS FROM FHIR Resource</t>
   </si>
@@ -96,9 +96,6 @@
     <t>DocumentReference.identifier</t>
   </si>
   <si>
-    <t>TXA-16?</t>
-  </si>
-  <si>
     <t>DocumentReference.status</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t>PID-3 (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
-  </si>
-  <si>
     <t>DocumentReference.created</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t>TXA-9 (No standard way to indicate a Device in HL7 v2 MDM message)</t>
-  </si>
-  <si>
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t xml:space="preserve">        DocumentReference.content.attachment</t>
   </si>
   <si>
-    <t>TXA-3 for mime type</t>
-  </si>
-  <si>
     <t xml:space="preserve">        DocumentReference.content.format</t>
   </si>
   <si>
@@ -211,6 +199,119 @@
   </si>
   <si>
     <t xml:space="preserve">                DocumentReference.context.related.ref</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Reference(Patient | Practitioner | Group | Device)
+ (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
+  </si>
+  <si>
+    <t>TXA-16</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner | Organization)</t>
+  </si>
+  <si>
+    <t>Reference(Organization)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reference(DocumentReference)</t>
+  </si>
+  <si>
+    <t>Reference(Encounter)</t>
+  </si>
+  <si>
+    <t>Reference(Patient)</t>
+  </si>
+  <si>
+    <t>Reference(Any)</t>
+  </si>
+  <si>
+    <t>TXA-9</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner | Organization | Device | Patient | RelatedPerson)
+ (No standard way to indicate a Device in HL7 v2 MDM message)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXA-3 </t>
+  </si>
+  <si>
+    <t>For mime type</t>
+  </si>
+  <si>
+    <t>TXA.12</t>
+  </si>
+  <si>
+    <t>TXA.16</t>
+  </si>
+  <si>
+    <t>TXA.19</t>
+  </si>
+  <si>
+    <t>TXA.17</t>
+  </si>
+  <si>
+    <t>TXA.2</t>
+  </si>
+  <si>
+    <t>PID.3</t>
+  </si>
+  <si>
+    <t>TXA.6</t>
+  </si>
+  <si>
+    <t>TXA.9</t>
+  </si>
+  <si>
+    <t>TXA.10</t>
+  </si>
+  <si>
+    <t>TXA.25</t>
+  </si>
+  <si>
+    <t>TXA.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXA.3 </t>
+  </si>
+  <si>
+    <t>PID.PatientIdentifierList</t>
+  </si>
+  <si>
+    <t>TXA.DocumentType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXA.DocumentContentPresentation </t>
+  </si>
+  <si>
+    <t>TXA.AssignedDocumentAuthenticator</t>
+  </si>
+  <si>
+    <t>TXA.DocumentTitle</t>
+  </si>
+  <si>
+    <t>TXA.DocumentConfidentialityStatus</t>
+  </si>
+  <si>
+    <t>TXA.OriginatorCodeName</t>
+  </si>
+  <si>
+    <t>TXA.OriginationDateTime</t>
+  </si>
+  <si>
+    <t>TXA.UniqueDocumentNumber</t>
+  </si>
+  <si>
+    <t>TXA.UniqueDocumentFileName</t>
+  </si>
+  <si>
+    <t>TXA.DocumentAvailabilityStatus</t>
+  </si>
+  <si>
+    <t>TXA.DocumentCompletionStatus</t>
   </si>
 </sst>
 </file>
@@ -334,15 +435,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -355,6 +447,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,364 +752,430 @@
     <col min="6" max="6" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="C10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="C18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
